--- a/Planilha do Bolo/PlanilhaBolo2023.xlsx
+++ b/Planilha do Bolo/PlanilhaBolo2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv-dvp02\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D886E4-7998-4FAC-842C-F3AF355BED99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3781B0AF-9485-421E-8F70-11B8A1A19791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
     <t>BOLO É PARA CAFÉ DA MANHA ATÉ AS 11:00</t>
   </si>
   <si>
-    <t>Em Débito</t>
+    <t>EM DÉBITO</t>
   </si>
 </sst>
 </file>
@@ -531,6 +531,42 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -540,16 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,33 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -591,8 +591,36 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8CBAD"/>
+      <color rgb="FFC6E0B4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -870,8 +898,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,52 +916,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="42"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -944,14 +972,14 @@
         <v>3</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="36"/>
@@ -966,11 +994,11 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="10">
         <v>24</v>
       </c>
@@ -992,11 +1020,11 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="10">
         <v>22</v>
       </c>
@@ -1018,11 +1046,11 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="10">
         <v>25</v>
       </c>
@@ -1044,11 +1072,11 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="10">
         <v>34</v>
       </c>
@@ -1070,11 +1098,11 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="10">
         <v>25</v>
       </c>
@@ -1096,11 +1124,11 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="10">
         <v>32</v>
       </c>
@@ -1122,11 +1150,11 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="10">
         <v>39</v>
       </c>
@@ -1148,11 +1176,11 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="10">
         <v>40</v>
       </c>
@@ -1174,11 +1202,11 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="10">
         <v>12</v>
       </c>
@@ -1195,19 +1223,17 @@
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="15">
-        <v>45043</v>
-      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11" t="s">
         <v>37</v>
@@ -1221,21 +1247,21 @@
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>35</v>
+      <c r="B15" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="15">
         <v>45054</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="35" t="s">
         <v>36</v>
       </c>
       <c r="K15" s="36"/>
@@ -1252,10 +1278,10 @@
         <v>45064</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="16"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -1272,12 +1298,12 @@
         <v>45075</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1291,10 +1317,10 @@
         <v>45085</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1308,10 +1334,10 @@
         <v>45096</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1415,12 +1441,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E17:H19"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H16"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
@@ -1428,13 +1454,29 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E17:H19"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H16"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B5:B26">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"PAGO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"EM DÉBITO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"PRÓXIMO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B26" xr:uid="{57C4A5F3-8716-48D7-8E57-A52184AF60E3}">
+      <formula1>"PAGO,EM DÉBITO,PRÓXIMO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
